--- a/householdmovein.xlsx
+++ b/householdmovein.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -49,7 +49,7 @@
     <x:t>TestScenario_1</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_1.TestCase_1</x:t>
+    <x:t>Move In for Household</x:t>
   </x:si>
   <x:si>
     <x:t>1</x:t>
@@ -181,127 +181,73 @@
     <x:t>15</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter Number Of Occupiers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user should be able to enter Number Of Occupiers</x:t>
+    <x:t>user should be able to move to additional occupants tab</x:t>
   </x:si>
   <x:si>
     <x:t>16</x:t>
   </x:si>
   <x:si>
-    <x:t>user should be able to move to additional occupants tab</x:t>
+    <x:t>Click on Next</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user should be able to move to Select Service tab</x:t>
   </x:si>
   <x:si>
     <x:t>17</x:t>
   </x:si>
   <x:si>
-    <x:t>In the Additional Occupants tab,_x000D_
-Enter Name in search bar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user should be able to select name from search bar</x:t>
+    <x:t>click on next</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user should be able to move to Bundle service tab</x:t>
   </x:si>
   <x:si>
     <x:t>18</x:t>
   </x:si>
   <x:si>
-    <x:t>user should be able to select Occupancy Type</x:t>
+    <x:t>user should be able to move to enter readings tab</x:t>
   </x:si>
   <x:si>
     <x:t>19</x:t>
   </x:si>
   <x:si>
-    <x:t>Click on Next</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user should be able to move to Select Service tab</x:t>
+    <x:t>Enter Move In reading</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user should be able to enter value for Move In reading</x:t>
   </x:si>
   <x:si>
     <x:t>20</x:t>
   </x:si>
   <x:si>
-    <x:t>Select available services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user should be able to Select available Services</x:t>
+    <x:t>click Move In reading method</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user should be able to select value for Move In reading</x:t>
   </x:si>
   <x:si>
     <x:t>21</x:t>
   </x:si>
   <x:si>
-    <x:t>click on next</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user should be able to move to Bundle service tab</x:t>
+    <x:t>user should be able to move to send welcome letter tab</x:t>
   </x:si>
   <x:si>
     <x:t>22</x:t>
   </x:si>
   <x:si>
-    <x:t>In the Select Bundle(s) and Service(s) tab, select available bundle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to select 
-value from the list</x:t>
+    <x:t>user should be able to move to dispay bill tab</x:t>
   </x:si>
   <x:si>
     <x:t>23</x:t>
   </x:si>
   <x:si>
-    <x:t>user should be able to move to enter readings tab</x:t>
+    <x:t>click on save</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a pop-up is displayed asking for change topayment plan</x:t>
   </x:si>
   <x:si>
     <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Enter Move In reading</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user should be able to enter value for Move In reading</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>click Move In reading method</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user should be able to select value for Move In reading</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user should be able to move to send welcome letter tab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>click on checkbox</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user should be able to select
-checkbox</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user should be able to move to dispay bill tab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>click on save</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a pop-up is displayed asking for change topayment plan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
   </x:si>
   <x:si>
     <x:t>click on No</x:t>
@@ -391,8 +337,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J31" totalsRowShown="0">
-  <x:autoFilter ref="A1:J31"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J25" totalsRowShown="0">
+  <x:autoFilter ref="A1:J25"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -697,19 +643,19 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J31"/>
+  <x:dimension ref="A1:J25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="23.130625000000002" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="12.980625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="14.270625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="60.550625000000004" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="28.980625" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="83.550625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
@@ -1013,10 +959,10 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
         <x:v>55</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s">
-        <x:v>56</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
@@ -1028,10 +974,10 @@
       <x:c r="D17" s="0" t="s"/>
       <x:c r="E17" s="0" t="s"/>
       <x:c r="F17" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
         <x:v>57</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>46</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
         <x:v>58</x:v>
@@ -1067,7 +1013,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
         <x:v>63</x:v>
@@ -1121,10 +1067,10 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
         <x:v>71</x:v>
-      </x:c>
-      <x:c r="H22" s="0" t="s">
-        <x:v>72</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s"/>
       <x:c r="J22" s="0" t="s"/>
@@ -1136,13 +1082,13 @@
       <x:c r="D23" s="0" t="s"/>
       <x:c r="E23" s="0" t="s"/>
       <x:c r="F23" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
         <x:v>73</x:v>
-      </x:c>
-      <x:c r="G23" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="H23" s="0" t="s">
-        <x:v>75</x:v>
       </x:c>
       <x:c r="I23" s="0" t="s"/>
       <x:c r="J23" s="0" t="s"/>
@@ -1154,13 +1100,13 @@
       <x:c r="D24" s="0" t="s"/>
       <x:c r="E24" s="0" t="s"/>
       <x:c r="F24" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
         <x:v>76</x:v>
-      </x:c>
-      <x:c r="G24" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="H24" s="0" t="s">
-        <x:v>77</x:v>
       </x:c>
       <x:c r="I24" s="0" t="s"/>
       <x:c r="J24" s="0" t="s"/>
@@ -1172,124 +1118,16 @@
       <x:c r="D25" s="0" t="s"/>
       <x:c r="E25" s="0" t="s"/>
       <x:c r="F25" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="G25" s="0" t="s">
+      <x:c r="H25" s="0" t="s">
         <x:v>79</x:v>
-      </x:c>
-      <x:c r="H25" s="0" t="s">
-        <x:v>80</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s"/>
       <x:c r="J25" s="0" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:10">
-      <x:c r="A26" s="0" t="s"/>
-      <x:c r="B26" s="0" t="s"/>
-      <x:c r="C26" s="0" t="s"/>
-      <x:c r="D26" s="0" t="s"/>
-      <x:c r="E26" s="0" t="s"/>
-      <x:c r="F26" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="G26" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="H26" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="I26" s="0" t="s"/>
-      <x:c r="J26" s="0" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:10">
-      <x:c r="A27" s="0" t="s"/>
-      <x:c r="B27" s="0" t="s"/>
-      <x:c r="C27" s="0" t="s"/>
-      <x:c r="D27" s="0" t="s"/>
-      <x:c r="E27" s="0" t="s"/>
-      <x:c r="F27" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="G27" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="H27" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="I27" s="0" t="s"/>
-      <x:c r="J27" s="0" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:10">
-      <x:c r="A28" s="0" t="s"/>
-      <x:c r="B28" s="0" t="s"/>
-      <x:c r="C28" s="0" t="s"/>
-      <x:c r="D28" s="0" t="s"/>
-      <x:c r="E28" s="0" t="s"/>
-      <x:c r="F28" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="G28" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="H28" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="I28" s="0" t="s"/>
-      <x:c r="J28" s="0" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:10">
-      <x:c r="A29" s="0" t="s"/>
-      <x:c r="B29" s="0" t="s"/>
-      <x:c r="C29" s="0" t="s"/>
-      <x:c r="D29" s="0" t="s"/>
-      <x:c r="E29" s="0" t="s"/>
-      <x:c r="F29" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="G29" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="H29" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="I29" s="0" t="s"/>
-      <x:c r="J29" s="0" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:10">
-      <x:c r="A30" s="0" t="s"/>
-      <x:c r="B30" s="0" t="s"/>
-      <x:c r="C30" s="0" t="s"/>
-      <x:c r="D30" s="0" t="s"/>
-      <x:c r="E30" s="0" t="s"/>
-      <x:c r="F30" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="G30" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="H30" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="I30" s="0" t="s"/>
-      <x:c r="J30" s="0" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:10">
-      <x:c r="A31" s="0" t="s"/>
-      <x:c r="B31" s="0" t="s"/>
-      <x:c r="C31" s="0" t="s"/>
-      <x:c r="D31" s="0" t="s"/>
-      <x:c r="E31" s="0" t="s"/>
-      <x:c r="F31" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="G31" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="H31" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="I31" s="0" t="s"/>
-      <x:c r="J31" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
